--- a/receipt/result.xlsx
+++ b/receipt/result.xlsx
@@ -31,16 +31,16 @@
     <t>数据规范</t>
   </si>
   <si>
+    <t>spe</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>zoe</t>
+  </si>
+  <si>
     <t>my</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>spe</t>
-  </si>
-  <si>
-    <t>zoe</t>
   </si>
 </sst>
 </file>
